--- a/Code/Results/Cases/Case_10_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_10_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.46677384630982</v>
+        <v>1.024857472073762</v>
       </c>
       <c r="C2">
-        <v>1.019169272890139</v>
+        <v>0.09639358531264008</v>
       </c>
       <c r="D2">
-        <v>0.04824190763466873</v>
+        <v>0.0400425833860254</v>
       </c>
       <c r="E2">
-        <v>1.35169962688731</v>
+        <v>0.03356741499934657</v>
       </c>
       <c r="F2">
-        <v>0.5084535737087279</v>
+        <v>1.137429176220365</v>
       </c>
       <c r="G2">
-        <v>0.0007896385517037115</v>
+        <v>0.8910777531043266</v>
       </c>
       <c r="H2">
-        <v>0.01092094002687105</v>
+        <v>0.01844853959164988</v>
       </c>
       <c r="I2">
-        <v>0.003536527785124033</v>
+        <v>0.01794399008940051</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6544037211365321</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6814607754662418</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06165110202982849</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05266017312431437</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9567809029751686</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1550885997522329</v>
       </c>
       <c r="Q2">
-        <v>1.435151477765999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2185341490490593</v>
+      </c>
+      <c r="R2">
+        <v>1.315530126162518</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.02011174815118</v>
+        <v>0.9043518877321048</v>
       </c>
       <c r="C3">
-        <v>0.8990605546520669</v>
+        <v>0.08172857319557636</v>
       </c>
       <c r="D3">
-        <v>0.0433835340809452</v>
+        <v>0.03541179866353872</v>
       </c>
       <c r="E3">
-        <v>1.176740016824183</v>
+        <v>0.0317506830974299</v>
       </c>
       <c r="F3">
-        <v>0.468187038062311</v>
+        <v>1.104571109329029</v>
       </c>
       <c r="G3">
-        <v>0.000793366441376707</v>
+        <v>0.8688993831990217</v>
       </c>
       <c r="H3">
-        <v>0.00766975902495437</v>
+        <v>0.0219174246752285</v>
       </c>
       <c r="I3">
-        <v>0.001965288275290966</v>
+        <v>0.02117722692418811</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6417382049900056</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6732866102153565</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07054088726470642</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.05057089447559715</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8356607533572742</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1397970134881561</v>
       </c>
       <c r="Q3">
-        <v>1.348594257482659</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1933043727624337</v>
+      </c>
+      <c r="R3">
+        <v>1.349311472810204</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.745669458445775</v>
+        <v>0.8297215432277483</v>
       </c>
       <c r="C4">
-        <v>0.8258832939075091</v>
+        <v>0.07296294793857072</v>
       </c>
       <c r="D4">
-        <v>0.04041041276209967</v>
+        <v>0.03260631507739475</v>
       </c>
       <c r="E4">
-        <v>1.069666178277558</v>
+        <v>0.03062205255342221</v>
       </c>
       <c r="F4">
-        <v>0.4441198563540496</v>
+        <v>1.084553939527268</v>
       </c>
       <c r="G4">
-        <v>0.0007957272508090085</v>
+        <v>0.8555395950799181</v>
       </c>
       <c r="H4">
-        <v>0.005904022270549425</v>
+        <v>0.02428347533616459</v>
       </c>
       <c r="I4">
-        <v>0.001270814676121557</v>
+        <v>0.02341928895066658</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.633883357862814</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6682097282664046</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07720149972703716</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.04925123240223428</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7612028176654064</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1305244387141968</v>
       </c>
       <c r="Q4">
-        <v>1.297464469391542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1777779121280396</v>
+      </c>
+      <c r="R4">
+        <v>1.370482512222097</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.633730900298815</v>
+        <v>0.7983352942653141</v>
       </c>
       <c r="C5">
-        <v>0.7977722387358028</v>
+        <v>0.06964429926988913</v>
       </c>
       <c r="D5">
-        <v>0.03928077046956702</v>
+        <v>0.03151086787813284</v>
       </c>
       <c r="E5">
-        <v>1.02608314129057</v>
+        <v>0.03014873323333944</v>
       </c>
       <c r="F5">
-        <v>0.4336700664951891</v>
+        <v>1.075604399083041</v>
       </c>
       <c r="G5">
-        <v>0.0007967124296093884</v>
+        <v>0.8493434905046797</v>
       </c>
       <c r="H5">
-        <v>0.00523637476029204</v>
+        <v>0.02531289136112225</v>
       </c>
       <c r="I5">
-        <v>0.001110499418202515</v>
+        <v>0.02450706618888798</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6302271756410533</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6654902234303179</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.08023704168678769</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.04867951944341531</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7306439431239937</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.126889456569053</v>
       </c>
       <c r="Q5">
-        <v>1.274436995028537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1713827775413144</v>
+      </c>
+      <c r="R5">
+        <v>1.378695692604598</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.615103766652396</v>
+        <v>0.7921216414576406</v>
       </c>
       <c r="C6">
-        <v>0.7950489896263662</v>
+        <v>0.06933842661049283</v>
       </c>
       <c r="D6">
-        <v>0.03919122151063448</v>
+        <v>0.03137684821629705</v>
       </c>
       <c r="E6">
-        <v>1.018830727099584</v>
+        <v>0.03005785332656785</v>
       </c>
       <c r="F6">
-        <v>0.4309748955527013</v>
+        <v>1.073108832010455</v>
       </c>
       <c r="G6">
-        <v>0.0007968828780179578</v>
+        <v>0.8473272325192198</v>
       </c>
       <c r="H6">
-        <v>0.005126972417599962</v>
+        <v>0.02549651516062335</v>
       </c>
       <c r="I6">
-        <v>0.001168165231651308</v>
+        <v>0.02483619158460559</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6290874078876385</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6642626289680535</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.08078278304322595</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04855440996051197</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7253368468828114</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1264292732019356</v>
       </c>
       <c r="Q6">
-        <v>1.267397047251904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1702489573057129</v>
+      </c>
+      <c r="R6">
+        <v>1.379433748345388</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.74406360535454</v>
+        <v>0.8258616138544426</v>
       </c>
       <c r="C7">
-        <v>0.8308092758339853</v>
+        <v>0.07333582556265839</v>
       </c>
       <c r="D7">
-        <v>0.04066341026042863</v>
+        <v>0.03286309306258772</v>
       </c>
       <c r="E7">
-        <v>1.069026406947373</v>
+        <v>0.03060703977037171</v>
       </c>
       <c r="F7">
-        <v>0.4413300423773592</v>
+        <v>1.080064388233907</v>
       </c>
       <c r="G7">
-        <v>0.0007957557770997617</v>
+        <v>0.8559276408448113</v>
       </c>
       <c r="H7">
-        <v>0.005890106154369357</v>
+        <v>0.02433467179851401</v>
       </c>
       <c r="I7">
-        <v>0.001472853056091239</v>
+        <v>0.02382387182459134</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6263987182586277</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6651268650441864</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07733030453988654</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.04914778680127085</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7590620505505967</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1308448332652503</v>
       </c>
       <c r="Q7">
-        <v>1.28828808501018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1773823735776254</v>
+      </c>
+      <c r="R7">
+        <v>1.368050906062351</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.312653545137607</v>
+        <v>0.9774202839919042</v>
       </c>
       <c r="C8">
-        <v>0.9847298999007421</v>
+        <v>0.0913432529554683</v>
       </c>
       <c r="D8">
-        <v>0.04692401796475565</v>
+        <v>0.03909198980751682</v>
       </c>
       <c r="E8">
-        <v>1.291216389130142</v>
+        <v>0.03298222287888741</v>
       </c>
       <c r="F8">
-        <v>0.4909136236972671</v>
+        <v>1.117168397288459</v>
       </c>
       <c r="G8">
-        <v>0.0007909279253908628</v>
+        <v>0.8903837976887985</v>
       </c>
       <c r="H8">
-        <v>0.009741767389663553</v>
+        <v>0.01965879211549537</v>
       </c>
       <c r="I8">
-        <v>0.003174773938467546</v>
+        <v>0.01949875278221214</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6287024672255939</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6728686999536393</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06461962311634739</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.05179531233593693</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9105140683936099</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1502491513873281</v>
       </c>
       <c r="Q8">
-        <v>1.393125671300481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2091992693816564</v>
+      </c>
+      <c r="R8">
+        <v>1.322395777606424</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.427610317638539</v>
+        <v>1.27716737285013</v>
       </c>
       <c r="C9">
-        <v>1.282110248089054</v>
+        <v>0.1283693244600101</v>
       </c>
       <c r="D9">
-        <v>0.0588090931990024</v>
+        <v>0.0508685267612492</v>
       </c>
       <c r="E9">
-        <v>1.730915313986756</v>
+        <v>0.03751539956403782</v>
       </c>
       <c r="F9">
-        <v>0.5988199823157387</v>
+        <v>1.202106497283083</v>
       </c>
       <c r="G9">
-        <v>0.0007819898167375172</v>
+        <v>0.9534260612403926</v>
       </c>
       <c r="H9">
-        <v>0.01935802986678037</v>
+        <v>0.01236013593341478</v>
       </c>
       <c r="I9">
-        <v>0.008607690668569923</v>
+        <v>0.01250570765847758</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6565160956664755</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6947414149173028</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04905759910730612</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.05690698155181106</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.212197731790496</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.1886459101973159</v>
       </c>
       <c r="Q9">
-        <v>1.632718893241275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2721226688487981</v>
+      </c>
+      <c r="R9">
+        <v>1.242229151124153</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.24749449069725</v>
+        <v>1.481455810961194</v>
       </c>
       <c r="C10">
-        <v>1.50644471872306</v>
+        <v>0.1564661458167649</v>
       </c>
       <c r="D10">
-        <v>0.06925275944912102</v>
+        <v>0.05976337804829512</v>
       </c>
       <c r="E10">
-        <v>1.955498156088424</v>
+        <v>0.03976940285069652</v>
       </c>
       <c r="F10">
-        <v>0.6683724546327312</v>
+        <v>1.241768678722053</v>
       </c>
       <c r="G10">
-        <v>0.0007759177289413412</v>
+        <v>1.007529583041119</v>
       </c>
       <c r="H10">
-        <v>0.02725836382229918</v>
+        <v>0.008732689774854752</v>
       </c>
       <c r="I10">
-        <v>0.0143664161419883</v>
+        <v>0.009071716443084021</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6382767680097885</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.6973508678591429</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04378472672464051</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.05952729356499109</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.422589067654656</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.210685053497258</v>
       </c>
       <c r="Q10">
-        <v>1.775547518866148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.312940107674919</v>
+      </c>
+      <c r="R10">
+        <v>1.176385544660604</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.612142301903873</v>
+        <v>1.497044592090958</v>
       </c>
       <c r="C11">
-        <v>1.610434802784823</v>
+        <v>0.1738362606221671</v>
       </c>
       <c r="D11">
-        <v>0.08861588644301577</v>
+        <v>0.05756551252111564</v>
       </c>
       <c r="E11">
-        <v>1.267337406619561</v>
+        <v>0.03244973504963422</v>
       </c>
       <c r="F11">
-        <v>0.5871507068896307</v>
+        <v>1.126810360933831</v>
       </c>
       <c r="G11">
-        <v>0.0007746196692268896</v>
+        <v>0.9618512007052402</v>
       </c>
       <c r="H11">
-        <v>0.04270868006982909</v>
+        <v>0.02728271221667455</v>
       </c>
       <c r="I11">
-        <v>0.01643561128637661</v>
+        <v>0.009004201910380871</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5366208779211377</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6272118853519899</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0442856759414898</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05723990129616086</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.46656129026141</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1650123771123191</v>
       </c>
       <c r="Q11">
-        <v>1.474547141099578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2911278445999557</v>
+      </c>
+      <c r="R11">
+        <v>1.106235080160623</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.74725555498668</v>
+        <v>1.473369960506517</v>
       </c>
       <c r="C12">
-        <v>1.642389293035194</v>
+        <v>0.1825089152548713</v>
       </c>
       <c r="D12">
-        <v>0.1037805964393641</v>
+        <v>0.05310656107788958</v>
       </c>
       <c r="E12">
-        <v>0.7713189373199754</v>
+        <v>0.02793433402246004</v>
       </c>
       <c r="F12">
-        <v>0.5121260620343264</v>
+        <v>1.034577121320211</v>
       </c>
       <c r="G12">
-        <v>0.0007745905169331831</v>
+        <v>0.9046451953275891</v>
       </c>
       <c r="H12">
-        <v>0.07854308646568597</v>
+        <v>0.06625669476013485</v>
       </c>
       <c r="I12">
-        <v>0.01664005842228544</v>
+        <v>0.008935593583880852</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4818373538788876</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5765088334448407</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.04516842495877427</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06067799605485824</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.463518094873649</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1268433813433703</v>
       </c>
       <c r="Q12">
-        <v>1.224683832186997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2655405130679434</v>
+      </c>
+      <c r="R12">
+        <v>1.074317856765934</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.71206086016997</v>
+        <v>1.415785825863679</v>
       </c>
       <c r="C13">
-        <v>1.628934670659646</v>
+        <v>0.1868321812835347</v>
       </c>
       <c r="D13">
-        <v>0.1168170525753141</v>
+        <v>0.04664224683881457</v>
       </c>
       <c r="E13">
-        <v>0.3948377359290731</v>
+        <v>0.02531701656231555</v>
       </c>
       <c r="F13">
-        <v>0.4334589186537912</v>
+        <v>0.9522195281562205</v>
       </c>
       <c r="G13">
-        <v>0.0007755528712741501</v>
+        <v>0.8246414564648461</v>
       </c>
       <c r="H13">
-        <v>0.1314041879758321</v>
+        <v>0.1226271586071732</v>
       </c>
       <c r="I13">
-        <v>0.01567717074598907</v>
+        <v>0.009361871418919421</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4594981784617858</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5353289990954231</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0461346957501636</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0683244381150061</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.425961292618013</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.09316515029917127</v>
       </c>
       <c r="Q13">
-        <v>0.9858811040282944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2356086130379786</v>
+      </c>
+      <c r="R13">
+        <v>1.064554971615674</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.610402796626545</v>
+        <v>1.359363278956408</v>
       </c>
       <c r="C14">
-        <v>1.600782500645209</v>
+        <v>0.1881476283539172</v>
       </c>
       <c r="D14">
-        <v>0.1251548963565625</v>
+        <v>0.04141338462721222</v>
       </c>
       <c r="E14">
-        <v>0.2040035724406977</v>
+        <v>0.02470235423556133</v>
       </c>
       <c r="F14">
-        <v>0.3772055239524477</v>
+        <v>0.8981056616377927</v>
       </c>
       <c r="G14">
-        <v>0.0007766576504858142</v>
+        <v>0.7600893820923034</v>
       </c>
       <c r="H14">
-        <v>0.1788295655706946</v>
+        <v>0.1725430732852118</v>
       </c>
       <c r="I14">
-        <v>0.01459786682350295</v>
+        <v>0.0100131275548847</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.455359465669936</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.51008731124303</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04688660290702451</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07619424563704058</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.383762920398482</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.07269135955040085</v>
       </c>
       <c r="Q14">
-        <v>0.8260307867355579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2128627916794485</v>
+      </c>
+      <c r="R14">
+        <v>1.066877620906913</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.549222564864976</v>
+        <v>1.337348509824551</v>
       </c>
       <c r="C15">
-        <v>1.586479300100507</v>
+        <v>0.1877879960620419</v>
       </c>
       <c r="D15">
-        <v>0.1266680095887693</v>
+        <v>0.03982172214123381</v>
       </c>
       <c r="E15">
-        <v>0.1664673984577796</v>
+        <v>0.02469077496421068</v>
       </c>
       <c r="F15">
-        <v>0.361549071281118</v>
+        <v>0.8853100942323167</v>
       </c>
       <c r="G15">
-        <v>0.0007771664842525621</v>
+        <v>0.7399077026468035</v>
       </c>
       <c r="H15">
-        <v>0.1906857109769646</v>
+        <v>0.1853246406340361</v>
       </c>
       <c r="I15">
-        <v>0.01418120435697556</v>
+        <v>0.01045414475182316</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4588848113660617</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5047332640014268</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04715614612020147</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07824199011034239</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.365761794327113</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06806183457901227</v>
       </c>
       <c r="Q15">
-        <v>0.7848470606577962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2062553104708087</v>
+      </c>
+      <c r="R15">
+        <v>1.070337327005717</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.202401853822494</v>
+        <v>1.267242321957752</v>
       </c>
       <c r="C16">
-        <v>1.495615476278033</v>
+        <v>0.1776185812691864</v>
       </c>
       <c r="D16">
-        <v>0.1191748546277722</v>
+        <v>0.03652090004661801</v>
       </c>
       <c r="E16">
-        <v>0.1619581450697751</v>
+        <v>0.02433032102412769</v>
       </c>
       <c r="F16">
-        <v>0.3473887037929586</v>
+        <v>0.8938008436603084</v>
       </c>
       <c r="G16">
-        <v>0.0007795445118418047</v>
+        <v>0.7083099407780082</v>
       </c>
       <c r="H16">
-        <v>0.175491235802042</v>
+        <v>0.1740662008941598</v>
       </c>
       <c r="I16">
-        <v>0.01192358401845794</v>
+        <v>0.01194048879183818</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5025425460023598</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5156160551295592</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04817179717863951</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07501020696784266</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.293218560363215</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.06692619856388049</v>
       </c>
       <c r="Q16">
-        <v>0.7706965671103063</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1962810198532061</v>
+      </c>
+      <c r="R16">
+        <v>1.095255435292351</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.991035451832488</v>
+        <v>1.242190061087229</v>
       </c>
       <c r="C17">
-        <v>1.441267988981963</v>
+        <v>0.1686618190660596</v>
       </c>
       <c r="D17">
-        <v>0.1089952125854552</v>
+        <v>0.03684485920792469</v>
       </c>
       <c r="E17">
-        <v>0.2459753982704243</v>
+        <v>0.02409899767689605</v>
       </c>
       <c r="F17">
-        <v>0.365796307107324</v>
+        <v>0.9277322720437837</v>
       </c>
       <c r="G17">
-        <v>0.000780802229109395</v>
+        <v>0.7209642616597023</v>
       </c>
       <c r="H17">
-        <v>0.1367689001963726</v>
+        <v>0.1371476362718482</v>
       </c>
       <c r="I17">
-        <v>0.01081278822335374</v>
+        <v>0.01278849441231245</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5357140427095572</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5368372168001727</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04878966517920968</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06796995973793329</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.258271613747439</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.07622334526099905</v>
       </c>
       <c r="Q17">
-        <v>0.8422055574621652</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2004132301468253</v>
+      </c>
+      <c r="R17">
+        <v>1.114662191889213</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.871728470037112</v>
+        <v>1.256789989264831</v>
       </c>
       <c r="C18">
-        <v>1.407347280808153</v>
+        <v>0.1597879356014005</v>
       </c>
       <c r="D18">
-        <v>0.09563455489917061</v>
+        <v>0.04000695601339999</v>
       </c>
       <c r="E18">
-        <v>0.4790218023010837</v>
+        <v>0.02507272528817617</v>
       </c>
       <c r="F18">
-        <v>0.4181691898324047</v>
+        <v>0.9937993653776829</v>
       </c>
       <c r="G18">
-        <v>0.0007811315644281613</v>
+        <v>0.7694157503621142</v>
       </c>
       <c r="H18">
-        <v>0.08461431799794639</v>
+        <v>0.08449479578352737</v>
       </c>
       <c r="I18">
-        <v>0.01026415122278657</v>
+        <v>0.01269238311491616</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.572653572597261</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5734995368425935</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04867103437479847</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05955754078221709</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.254483428234778</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.09826820484394716</v>
       </c>
       <c r="Q18">
-        <v>1.011170216096644</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2179958981034638</v>
+      </c>
+      <c r="R18">
+        <v>1.135818029259025</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.83500880465499</v>
+        <v>1.297937077813998</v>
       </c>
       <c r="C19">
-        <v>1.40339474351282</v>
+        <v>0.1535697136920504</v>
       </c>
       <c r="D19">
-        <v>0.08223365033970964</v>
+        <v>0.04553024121235438</v>
       </c>
       <c r="E19">
-        <v>0.9131096264680565</v>
+        <v>0.02859462733747087</v>
       </c>
       <c r="F19">
-        <v>0.4940337535870114</v>
+        <v>1.080484655304744</v>
       </c>
       <c r="G19">
-        <v>0.0007805737522911431</v>
+        <v>0.8389660915240711</v>
       </c>
       <c r="H19">
-        <v>0.0420758044946794</v>
+        <v>0.03858499922532843</v>
       </c>
       <c r="I19">
-        <v>0.01072812603060136</v>
+        <v>0.01253957481501011</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.612218376325643</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6193887636779252</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04781646134192719</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.05470355912427127</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.2756476493675</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1340008519811136</v>
       </c>
       <c r="Q19">
-        <v>1.251779364725252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2457491823075202</v>
+      </c>
+      <c r="R19">
+        <v>1.160755135628074</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031627643970751</v>
+        <v>1.421841136962314</v>
       </c>
       <c r="C20">
-        <v>1.464437765624723</v>
+        <v>0.1522990874184984</v>
       </c>
       <c r="D20">
-        <v>0.06744620694644254</v>
+        <v>0.05725755851293002</v>
       </c>
       <c r="E20">
-        <v>1.891890550245648</v>
+        <v>0.03894301303311742</v>
       </c>
       <c r="F20">
-        <v>0.6409981226065185</v>
+        <v>1.228100984288034</v>
       </c>
       <c r="G20">
-        <v>0.0007775358304290444</v>
+        <v>0.9731407125087941</v>
       </c>
       <c r="H20">
-        <v>0.02500230937025849</v>
+        <v>0.009607842326318838</v>
       </c>
       <c r="I20">
-        <v>0.01333659226125761</v>
+        <v>0.01095667567848224</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.658461142976023</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6934291673647976</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0448530847169728</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.05863931825396396</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.369168699508009</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.205894609263936</v>
       </c>
       <c r="Q20">
-        <v>1.707873429777266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3018426020130036</v>
+      </c>
+      <c r="R20">
+        <v>1.191549306761281</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.663603663768583</v>
+        <v>1.576935464909212</v>
       </c>
       <c r="C21">
-        <v>1.636139845533137</v>
+        <v>0.1676236014654933</v>
       </c>
       <c r="D21">
-        <v>0.07300782904698622</v>
+        <v>0.06848276037614909</v>
       </c>
       <c r="E21">
-        <v>2.224275313971731</v>
+        <v>0.04299476146518622</v>
       </c>
       <c r="F21">
-        <v>0.7181090159483858</v>
+        <v>1.25252887487072</v>
       </c>
       <c r="G21">
-        <v>0.0007726865873697398</v>
+        <v>1.097690650960359</v>
       </c>
       <c r="H21">
-        <v>0.03281830044685519</v>
+        <v>0.006769657471693113</v>
       </c>
       <c r="I21">
-        <v>0.01854060229383236</v>
+        <v>0.008539483215499466</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5584764638472137</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6916908802292596</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04262976851910505</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.06179103152431775</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.516431711455738</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2331594519096853</v>
       </c>
       <c r="Q21">
-        <v>1.895197017569245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3380558613665769</v>
+      </c>
+      <c r="R21">
+        <v>1.139334492506954</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.077296100170315</v>
+        <v>1.676186848769561</v>
       </c>
       <c r="C22">
-        <v>1.741715857843474</v>
+        <v>0.176888963472706</v>
       </c>
       <c r="D22">
-        <v>0.07705961331203781</v>
+        <v>0.07559985672568814</v>
       </c>
       <c r="E22">
-        <v>2.390794747381719</v>
+        <v>0.04516321275366053</v>
       </c>
       <c r="F22">
-        <v>0.7665380570823004</v>
+        <v>1.262712695187574</v>
       </c>
       <c r="G22">
-        <v>0.000769642109448282</v>
+        <v>1.186053285076653</v>
       </c>
       <c r="H22">
-        <v>0.03795447932891705</v>
+        <v>0.005339457114083124</v>
       </c>
       <c r="I22">
-        <v>0.02207615676014552</v>
+        <v>0.006831814289430582</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4951014611398818</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6880407825734522</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0422786858629296</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.06346950670618945</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.609290678879006</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2470224766468618</v>
       </c>
       <c r="Q22">
-        <v>2.010982655735347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3594465476545352</v>
+      </c>
+      <c r="R22">
+        <v>1.104547787673972</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.856533976777541</v>
+        <v>1.628470473042626</v>
       </c>
       <c r="C23">
-        <v>1.678693843975964</v>
+        <v>0.1717863314360102</v>
       </c>
       <c r="D23">
-        <v>0.0745603636229859</v>
+        <v>0.0711861577230124</v>
       </c>
       <c r="E23">
-        <v>2.301860511110718</v>
+        <v>0.0439666991998795</v>
       </c>
       <c r="F23">
-        <v>0.7437029678328884</v>
+        <v>1.264345581391666</v>
       </c>
       <c r="G23">
-        <v>0.0007712498272074986</v>
+        <v>1.132462862879777</v>
       </c>
       <c r="H23">
-        <v>0.03518443906473134</v>
+        <v>0.006056368638967857</v>
       </c>
       <c r="I23">
-        <v>0.01990882957891671</v>
+        <v>0.007290512870753219</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5407581907497274</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.694457643219188</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04229177907220905</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.06268542664951315</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.563556966416996</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2391767346205143</v>
       </c>
       <c r="Q23">
-        <v>1.959238721746175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3485869652439888</v>
+      </c>
+      <c r="R23">
+        <v>1.125797788681208</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.022345505370311</v>
+        <v>1.429983822944052</v>
       </c>
       <c r="C24">
-        <v>1.452387582760707</v>
+        <v>0.1501400816265317</v>
       </c>
       <c r="D24">
-        <v>0.0656626206233426</v>
+        <v>0.0575871176967695</v>
       </c>
       <c r="E24">
-        <v>1.967538615152051</v>
+        <v>0.03986102117694656</v>
       </c>
       <c r="F24">
-        <v>0.6548386594035378</v>
+        <v>1.242941210376415</v>
       </c>
       <c r="G24">
-        <v>0.0007774558731151467</v>
+        <v>0.9854428967090882</v>
       </c>
       <c r="H24">
-        <v>0.02548343545092102</v>
+        <v>0.009347734139672326</v>
       </c>
       <c r="I24">
-        <v>0.01297716825878936</v>
+        <v>0.01025760750147953</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6660772049862658</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7025846133237295</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04468905505438636</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.05941223637973891</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.371268360415826</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2102154509262562</v>
       </c>
       <c r="Q24">
-        <v>1.754635322995938</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3051869840177162</v>
+      </c>
+      <c r="R24">
+        <v>1.198580215417586</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.125615602166818</v>
+        <v>1.192703885916899</v>
       </c>
       <c r="C25">
-        <v>1.210872665251486</v>
+        <v>0.1197830331339134</v>
       </c>
       <c r="D25">
-        <v>0.05608168448596018</v>
+        <v>0.04767897027004153</v>
       </c>
       <c r="E25">
-        <v>1.611287029704712</v>
+        <v>0.03620395527269871</v>
       </c>
       <c r="F25">
-        <v>0.5640920550256467</v>
+        <v>1.176378839916907</v>
       </c>
       <c r="G25">
-        <v>0.0007843738772956623</v>
+        <v>0.9268116659239496</v>
       </c>
       <c r="H25">
-        <v>0.01649207729639268</v>
+        <v>0.01413013075556868</v>
       </c>
       <c r="I25">
-        <v>0.007186637996994705</v>
+        <v>0.01476697717320796</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6547956457384174</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6865312399810648</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.05229741043114511</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.05543934338057444</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.131007603698691</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.178899185606852</v>
       </c>
       <c r="Q25">
-        <v>1.549647283128024</v>
+        <v>0.254925862073339</v>
+      </c>
+      <c r="R25">
+        <v>1.262008630227218</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
